--- a/CucumberHybridFrameworkCTS/Data/DataSheet.xlsx
+++ b/CucumberHybridFrameworkCTS/Data/DataSheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nibras Ali\eclipse workspace_Tester\CucumberHybridFrameworkCTS\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nibras Ali\git\CucumberHybridFrameworkCTS\CucumberHybridFrameworkCTS\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA0D9719-E3F1-46B5-ABEC-AE155F30A9DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE48F7AC-CB59-4640-92A8-EF35D8177786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{10B0F8DC-BB30-430B-9789-9CA1C6D6B4A9}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -86,6 +86,12 @@
   </si>
   <si>
     <t>Fail</t>
+  </si>
+  <si>
+    <t>TC03</t>
+  </si>
+  <si>
+    <t>TC04</t>
   </si>
 </sst>
 </file>
@@ -608,10 +614,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52BCF512-C495-4FD4-93F5-3131982B05AE}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -643,6 +649,22 @@
         <v>19</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
